--- a/11111111111111/Menu.xlsx
+++ b/11111111111111/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramesh's\Desktop\Final Restaurant 365\restaurant-365\11111111111111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E4292-E027-4EFD-BDDA-580290167299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF2F36-EC18-401D-8554-CA82BB3B7001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
